--- a/excell/just_users.xlsx
+++ b/excell/just_users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="151">
   <si>
     <t>ID</t>
   </si>
@@ -443,6 +443,30 @@
   </si>
   <si>
     <t>2024-11-06 20:15:06</t>
+  </si>
+  <si>
+    <t>2024-11-06 20:19:57</t>
+  </si>
+  <si>
+    <t>@Albina2000k</t>
+  </si>
+  <si>
+    <t>2024-11-06 20:21:57</t>
+  </si>
+  <si>
+    <t>2024-11-06 20:26:47</t>
+  </si>
+  <si>
+    <t>2024-11-06 20:43:11</t>
+  </si>
+  <si>
+    <t>2024-11-06 20:49:17</t>
+  </si>
+  <si>
+    <t>2024-11-06 21:07:16</t>
+  </si>
+  <si>
+    <t>2024-11-06 21:52:40</t>
   </si>
 </sst>
 </file>
@@ -774,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2432,6 +2456,104 @@
         <v>142</v>
       </c>
     </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>6775879767</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>6170275864</v>
+      </c>
+      <c r="C120" t="s">
+        <v>144</v>
+      </c>
+      <c r="D120" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>997157364</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>839385339</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>1222037958</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2086331371</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>5053131861</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
